--- a/ICS_OEE/ICS_Transformation.xlsx
+++ b/ICS_OEE/ICS_Transformation.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EA70B0-918A-4C99-99C0-52073A160B3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8F6DED-BA59-49A5-BD1C-F799F427C957}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$79</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="71">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -224,25 +227,51 @@
   </si>
   <si>
     <t>A57-A53</t>
+  </si>
+  <si>
+    <t>READY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NORMALCLEANING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDLE/STOP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -309,7 +338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,12 +387,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -641,13 +673,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="2.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -745,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>2</v>
@@ -1686,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>2</v>
@@ -2435,30 +2467,30 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="A46" s="12">
         <v>20210814094050</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="11" t="s">
+      <c r="B46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G46" s="11">
+      <c r="F46" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G46" s="12">
         <v>20210814094050</v>
       </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
       <c r="K46" s="8" t="s">
         <v>20</v>
       </c>
@@ -2479,30 +2511,30 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
+      <c r="A47" s="12">
         <v>20210814095220</v>
       </c>
-      <c r="B47" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="11" t="s">
+      <c r="B47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G47" s="11">
+      <c r="F47" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G47" s="12">
         <v>20210814095220</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
       <c r="K47" s="8" t="s">
         <v>20</v>
       </c>
@@ -2523,30 +2555,30 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+      <c r="A48" s="12">
         <v>20210814100108</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E48" s="11" t="s">
+      <c r="B48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G48" s="11">
+      <c r="F48" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="12">
         <v>20210814100108</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
       <c r="K48" s="9" t="s">
         <v>20</v>
       </c>
@@ -2567,82 +2599,82 @@
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+      <c r="A49" s="12">
         <v>20210814101814</v>
       </c>
-      <c r="B49" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E49" s="11" t="s">
+      <c r="B49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G49" s="11">
+      <c r="F49" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="12">
         <v>20210814101814</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+      <c r="A50" s="12">
         <v>20210814111051</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E50" s="11" t="s">
+      <c r="B50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G50" s="11">
+      <c r="F50" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="12">
         <v>20210814111051</v>
       </c>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
+      <c r="A51" s="12">
         <v>20210814111940</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G51" s="11">
+      <c r="B51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G51" s="12">
         <v>20210814111940</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
       <c r="K51" s="3" t="s">
         <v>13</v>
       </c>
@@ -2663,30 +2695,30 @@
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
+      <c r="A52" s="12">
         <v>20210814111948</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="11" t="s">
+      <c r="B52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G52" s="11">
+      <c r="F52" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="12">
         <v>20210814111948</v>
       </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
       <c r="K52" s="2" t="s">
         <v>17</v>
       </c>
@@ -2968,6 +3000,27 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>20210814133750</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59" s="1">
+        <v>20210814133750</v>
+      </c>
       <c r="K59" s="8" t="s">
         <v>20</v>
       </c>
@@ -2989,7 +3042,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>20210814133750</v>
+        <v>20210814133808</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>0</v>
@@ -3001,13 +3054,13 @@
         <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G60" s="1">
-        <v>20210814133750</v>
+        <v>20210814133808</v>
       </c>
       <c r="K60" s="9" t="s">
         <v>20</v>
@@ -3029,6 +3082,36 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>20210814134850</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1">
+        <v>20210814134850</v>
+      </c>
+      <c r="H61" s="1">
+        <v>2042</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="K61" s="10" t="s">
         <v>20</v>
       </c>
@@ -3050,7 +3133,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>20210814133808</v>
+        <v>20210814134921</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>0</v>
@@ -3068,7 +3151,7 @@
         <v>2</v>
       </c>
       <c r="G62" s="1">
-        <v>20210814133808</v>
+        <v>20210814134921</v>
       </c>
       <c r="K62" s="10" t="s">
         <v>20</v>
@@ -3089,9 +3172,41 @@
         <v>25</v>
       </c>
     </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>20210814135023</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63" s="1">
+        <v>20210814135023</v>
+      </c>
+      <c r="H63" s="1">
+        <v>2042</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>20210814134850</v>
+        <v>20210814135029</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>0</v>
@@ -3103,25 +3218,37 @@
         <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G64" s="1">
-        <v>20210814134850</v>
-      </c>
-      <c r="H64" s="1">
-        <v>2042</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>3</v>
+        <v>20210814135029</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>20210814135047</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G65" s="1">
+        <v>20210814135047</v>
+      </c>
       <c r="K65" s="3" t="s">
         <v>13</v>
       </c>
@@ -3143,7 +3270,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>20210814134921</v>
+        <v>20210814135159</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>0</v>
@@ -3161,7 +3288,7 @@
         <v>2</v>
       </c>
       <c r="G66" s="1">
-        <v>20210814134921</v>
+        <v>20210814135159</v>
       </c>
       <c r="K66" s="2" t="s">
         <v>17</v>
@@ -3183,6 +3310,27 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>20210814135912</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G67" s="1">
+        <v>20210814135912</v>
+      </c>
       <c r="K67" s="2" t="s">
         <v>20</v>
       </c>
@@ -3204,7 +3352,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>20210814135023</v>
+        <v>20210814135923</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>0</v>
@@ -3216,22 +3364,13 @@
         <v>0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G68" s="1">
-        <v>20210814135023</v>
-      </c>
-      <c r="H68" s="1">
-        <v>2042</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>3</v>
+        <v>20210814135923</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>17</v>
@@ -3253,6 +3392,27 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>20210814213134</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="1">
+        <v>20210814213134</v>
+      </c>
       <c r="K69" s="4" t="s">
         <v>20</v>
       </c>
@@ -3273,27 +3433,6 @@
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>20210814135029</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G70" s="1">
-        <v>20210814135029</v>
-      </c>
       <c r="K70" s="7" t="s">
         <v>21</v>
       </c>
@@ -3334,27 +3473,6 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>20210814135047</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G72" s="1">
-        <v>20210814135047</v>
-      </c>
       <c r="K72" s="8" t="s">
         <v>20</v>
       </c>
@@ -3395,27 +3513,6 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>20210814135159</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G74" s="1">
-        <v>20210814135159</v>
-      </c>
       <c r="K74" s="9" t="s">
         <v>20</v>
       </c>
@@ -3456,27 +3553,6 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>20210814135912</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G76" s="1">
-        <v>20210814135912</v>
-      </c>
       <c r="K76" s="10" t="s">
         <v>20</v>
       </c>
@@ -3517,27 +3593,6 @@
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>20210814135923</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G78" s="1">
-        <v>20210814135923</v>
-      </c>
       <c r="K78" s="11" t="s">
         <v>20</v>
       </c>
@@ -3577,30 +3632,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>20210814213134</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G80" s="1">
-        <v>20210814213134</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:P79" xr:uid="{D8980F4E-42B0-4776-80B4-8CEB2D09E3ED}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>